--- a/src/tournament/schedules/pool_D/schedule.xlsx
+++ b/src/tournament/schedules/pool_D/schedule.xlsx
@@ -58,8 +58,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,14 +70,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
     <fill>
@@ -516,8 +516,8 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
   </cols>
@@ -567,21 +567,21 @@
         <v>45641.625</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45641.62916666667</v>
+        <v>45641.62673611111</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Dream team</t>
+          <t>Firesky</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>EL-LINE</t>
+          <t>Mugiwara</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>2min 30s</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -595,19 +595,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45641.62916666667</v>
+        <v>45641.62673611111</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45641.62951388889</v>
+        <v>45641.62708333333</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>Bélion</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>KACW</t>
+          <t>Team Zero</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -622,93 +622,93 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>45641.62951388889</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>45641.63125</v>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="B4" s="3" t="n">
+        <v>45641.62708333333</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>45641.62881944444</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>45641.63125</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>45641.63298611111</v>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="B5" s="7" t="n">
+        <v>45641.62881944444</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>45641.63055555556</v>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>45641.63298611111</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="9" t="n">
+        <v>45641.63055555556</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <v>45641.63472222222</v>
       </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>6min 0s</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
@@ -726,12 +726,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>AI_MAU</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Dream team</t>
+          <t>Team Zero</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -746,93 +746,93 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="3" t="n">
         <v>45641.63506944444</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="3" t="n">
         <v>45641.63680555556</v>
       </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="5" t="n">
         <v>45641.63680555556</v>
       </c>
-      <c r="C9" s="9" t="n">
-        <v>45641.63854166667</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="C9" s="5" t="n">
+        <v>45641.63715277778</v>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>45641.63715277778</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>45641.63888888889</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="n">
-        <v>45641.63854166667</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>45641.64027777778</v>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Dream team</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
@@ -843,19 +843,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45641.64027777778</v>
+        <v>45641.63888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45641.640625</v>
+        <v>45641.63923611111</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>Firesky</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>EL-LINE</t>
+          <t>Team Zero</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -870,93 +870,93 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>45641.640625</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>45641.64236111111</v>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="B12" s="3" t="n">
+        <v>45641.63923611111</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>45641.64097222222</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>45641.64236111111</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>45641.64409722222</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="B13" s="5" t="n">
+        <v>45641.64097222222</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>45641.64131944445</v>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>45641.64131944445</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>45641.64305555556</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v>45641.64409722222</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>45641.64583333334</v>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Dream team</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
@@ -967,19 +967,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>45641.64583333334</v>
+        <v>45641.64305555556</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45641.64618055556</v>
+        <v>45641.64340277778</v>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>Innovation Group (IG)</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Python Trident</t>
+          <t>Team Zero</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -994,93 +994,93 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>45641.64618055556</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>45641.64791666667</v>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="B16" s="3" t="n">
+        <v>45641.64340277778</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>45641.64513888889</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>45641.64791666667</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>45641.64965277778</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
+      <c r="B17" s="5" t="n">
+        <v>45641.64513888889</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45641.64548611111</v>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>45641.64548611111</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>45641.64722222222</v>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>45641.64965277778</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>45641.65</v>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>Black Witches</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>0min 30s</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
@@ -1091,24 +1091,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>45641.65</v>
+        <v>45641.64722222222</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>45641.65416666667</v>
+        <v>45641.64895833333</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Dream team</t>
+          <t>Blacknight01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Python Trident</t>
+          <t>Innovation Group (IG)</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>2min 30s</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1122,213 +1122,213 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="n">
-        <v>45641.65416666667</v>
+        <v>45641.64895833333</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>45641.65590277778</v>
+        <v>45641.653125</v>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>IFRI</t>
+          <t>Firesky</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>KACW</t>
+          <t>Gojok</t>
         </is>
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
+          <t>6min 0s</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>45641.653125</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>45641.65347222222</v>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Team Zero</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>45641.65347222222</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>45641.65520833333</v>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="n">
-        <v>45641.65590277778</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>45641.65763888889</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>45641.65520833333</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>45641.65555555555</v>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>45641.65555555555</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>45641.65972222222</v>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>6min 0s</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>45641.65972222222</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>45641.66006944444</v>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Team Zero</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>45641.66006944444</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>45641.66180555556</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>45641.65763888889</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>45641.659375</v>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G22" s="8" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="n">
-        <v>45641.659375</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>45641.66111111111</v>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>Dream team</t>
-        </is>
-      </c>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>45641.66111111111</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>45641.66145833334</v>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>Black Witches</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>0min 30s</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>45641.66145833334</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>45641.665625</v>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6min 0s</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="n">
-        <v>45641.665625</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>45641.66736111111</v>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
@@ -1339,19 +1339,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>45641.66736111111</v>
+        <v>45641.66180555556</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45641.66770833333</v>
+        <v>45641.66215277778</v>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>Bélion</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>IFRI</t>
+          <t>Firesky</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -1366,62 +1366,62 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="n">
-        <v>45641.66770833333</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>45641.66944444444</v>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Dream team</t>
-        </is>
-      </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr">
+      <c r="B28" s="5" t="n">
+        <v>45641.66215277778</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>45641.6625</v>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Team Zero</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="n">
-        <v>45641.66944444444</v>
-      </c>
-      <c r="C29" s="7" t="n">
-        <v>45641.67118055555</v>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="inlineStr">
+      <c r="B29" s="5" t="n">
+        <v>45641.6625</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>45641.66284722222</v>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>ALLER</t>
         </is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="B30" s="11" t="n">
-        <v>45641.67118055555</v>
+        <v>45641.66284722222</v>
       </c>
       <c r="C30" s="11" t="n">
-        <v>45641.69201388889</v>
+        <v>45641.66979166667</v>
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
       <c r="E30" s="10" t="inlineStr"/>
       <c r="F30" s="10" t="inlineStr">
         <is>
-          <t>30min 0s</t>
+          <t>10min 0s</t>
         </is>
       </c>
       <c r="G30" s="10" t="inlineStr">
@@ -1461,24 +1461,24 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>45641.69201388889</v>
+        <v>45641.66979166667</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>45641.69618055555</v>
+        <v>45641.67152777778</v>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>EL-LINE</t>
+          <t>Mugiwara</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Dream team</t>
+          <t>Firesky</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>2min 30s</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1492,19 +1492,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>45641.67534722222</v>
+        <v>45641.66458333333</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>45641.67569444444</v>
+        <v>45641.66493055555</v>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>KACW</t>
+          <t>Team Zero</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>Bélion</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -1519,93 +1519,93 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>45641.67569444444</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>45641.67743055556</v>
-      </c>
-      <c r="D33" s="6" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="F33" s="6" t="inlineStr">
+      <c r="B33" s="3" t="n">
+        <v>45641.66493055555</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>45641.66666666666</v>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G33" s="6" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="n">
-        <v>45641.67743055556</v>
-      </c>
-      <c r="C34" s="9" t="n">
-        <v>45641.67916666667</v>
-      </c>
-      <c r="D34" s="8" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="E34" s="8" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="F34" s="8" t="inlineStr">
+      <c r="B34" s="7" t="n">
+        <v>45641.66666666666</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>45641.66840277778</v>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G34" s="8" t="inlineStr">
+      <c r="G34" s="6" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="n">
-        <v>45641.67916666667</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>45641.68090277778</v>
-      </c>
-      <c r="D35" s="6" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="F35" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G35" s="6" t="inlineStr">
+      <c r="B35" s="9" t="n">
+        <v>45641.66840277778</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>45641.67256944445</v>
+      </c>
+      <c r="D35" s="8" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>6min 0s</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -1616,19 +1616,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>45641.68090277778</v>
+        <v>45641.67256944445</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45641.68125</v>
+        <v>45641.67291666667</v>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Dream team</t>
+          <t>Team Zero</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>AI_MAU</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
@@ -1643,93 +1643,93 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n">
+      <c r="A37" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="n">
-        <v>45641.68125</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>45641.68298611111</v>
-      </c>
-      <c r="D37" s="6" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="F37" s="6" t="inlineStr">
+      <c r="B37" s="3" t="n">
+        <v>45641.67291666667</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>45641.67465277778</v>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G37" s="6" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="n">
-        <v>45641.68298611111</v>
-      </c>
-      <c r="C38" s="9" t="n">
-        <v>45641.68472222222</v>
-      </c>
-      <c r="D38" s="8" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="E38" s="8" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="F38" s="8" t="inlineStr">
+      <c r="B38" s="5" t="n">
+        <v>45641.67465277778</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>45641.675</v>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>45641.675</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>45641.67673611111</v>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G38" s="8" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7" t="n">
-        <v>45641.68472222222</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>45641.68645833333</v>
-      </c>
-      <c r="D39" s="6" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="E39" s="6" t="inlineStr">
-        <is>
-          <t>Dream team</t>
-        </is>
-      </c>
-      <c r="F39" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G39" s="6" t="inlineStr">
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -1740,19 +1740,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>45641.68645833333</v>
+        <v>45641.67673611111</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>45641.68680555555</v>
+        <v>45641.67708333334</v>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>EL-LINE</t>
+          <t>Team Zero</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>Firesky</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
@@ -1767,93 +1767,93 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n">
+      <c r="A41" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="7" t="n">
-        <v>45641.68680555555</v>
-      </c>
-      <c r="C41" s="7" t="n">
-        <v>45641.68854166667</v>
-      </c>
-      <c r="D41" s="6" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="B41" s="3" t="n">
+        <v>45641.67708333334</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>45641.67881944445</v>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G41" s="6" t="inlineStr">
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="n">
-        <v>45641.68854166667</v>
-      </c>
-      <c r="C42" s="9" t="n">
-        <v>45641.69027777778</v>
-      </c>
-      <c r="D42" s="8" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="E42" s="8" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="F42" s="8" t="inlineStr">
+      <c r="B42" s="5" t="n">
+        <v>45641.67881944445</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>45641.67916666667</v>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>45641.67916666667</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>45641.68090277778</v>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G42" s="8" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="7" t="n">
-        <v>45641.69027777778</v>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>45641.69201388889</v>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>Dream team</t>
-        </is>
-      </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="inlineStr">
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -1864,19 +1864,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>45641.69201388889</v>
+        <v>45641.68090277778</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>45641.69236111111</v>
+        <v>45641.68125</v>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>Python Trident</t>
+          <t>Team Zero</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>Innovation Group (IG)</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
@@ -1891,93 +1891,93 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n">
+      <c r="A45" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="n">
-        <v>45641.69236111111</v>
-      </c>
-      <c r="C45" s="7" t="n">
-        <v>45641.69409722222</v>
-      </c>
-      <c r="D45" s="6" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="E45" s="6" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="F45" s="6" t="inlineStr">
+      <c r="B45" s="3" t="n">
+        <v>45641.68125</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>45641.68298611111</v>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Firesky</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G45" s="6" t="inlineStr">
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n">
+      <c r="A46" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="n">
-        <v>45641.69409722222</v>
-      </c>
-      <c r="C46" s="9" t="n">
-        <v>45641.69583333333</v>
-      </c>
-      <c r="D46" s="8" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="B46" s="5" t="n">
+        <v>45641.68298611111</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>45641.68333333333</v>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7" t="n">
+        <v>45641.68333333333</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>45641.68506944444</v>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G46" s="8" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5" t="n">
-        <v>45641.69583333333</v>
-      </c>
-      <c r="C47" s="5" t="n">
-        <v>45641.69618055555</v>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>Black Witches</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>0min 30s</t>
-        </is>
-      </c>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="G47" s="6" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -1988,24 +1988,24 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>45641.69618055555</v>
+        <v>45641.68506944444</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>45641.70034722222</v>
+        <v>45641.68680555555</v>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Python Trident</t>
+          <t>Innovation Group (IG)</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Dream team</t>
+          <t>Blacknight01</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>2min 30s</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -2019,213 +2019,213 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="n">
-        <v>45641.70034722222</v>
+        <v>45641.68680555555</v>
       </c>
       <c r="C49" s="9" t="n">
-        <v>45641.70208333333</v>
+        <v>45641.69097222222</v>
       </c>
       <c r="D49" s="8" t="inlineStr">
         <is>
-          <t>KACW</t>
+          <t>Gojok</t>
         </is>
       </c>
       <c r="E49" s="8" t="inlineStr">
         <is>
-          <t>IFRI</t>
+          <t>Firesky</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
+          <t>6min 0s</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>45641.69097222222</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>45641.69131944444</v>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Team Zero</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="n">
+        <v>45641.69131944444</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>45641.69305555556</v>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="inlineStr">
+        <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G49" s="8" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="7" t="n">
-        <v>45641.70208333333</v>
-      </c>
-      <c r="C50" s="7" t="n">
-        <v>45641.70381944445</v>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="E50" s="6" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="G51" s="6" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>45641.69305555556</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>45641.69340277778</v>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="n">
+        <v>45641.69340277778</v>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>45641.69756944444</v>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>6min 0s</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>45641.69756944444</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>45641.69791666666</v>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Team Zero</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Blacknight01</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>RETOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45641.69791666666</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>45641.69965277778</v>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Mugiwara</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Innovation Group (IG)</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>2min 30s</t>
         </is>
       </c>
-      <c r="G50" s="6" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="8" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="9" t="n">
-        <v>45641.70381944445</v>
-      </c>
-      <c r="C51" s="9" t="n">
-        <v>45641.70555555556</v>
-      </c>
-      <c r="D51" s="8" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="E51" s="8" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="F51" s="8" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G51" s="8" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="7" t="n">
-        <v>45641.70555555556</v>
-      </c>
-      <c r="C52" s="7" t="n">
-        <v>45641.70729166667</v>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>IFRI</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="inlineStr">
-        <is>
-          <t>Dream team</t>
-        </is>
-      </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5" t="n">
-        <v>45641.70729166667</v>
-      </c>
-      <c r="C53" s="5" t="n">
-        <v>45641.70763888889</v>
-      </c>
-      <c r="D53" s="4" t="inlineStr">
-        <is>
-          <t>Black Witches</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr">
-        <is>
-          <t>0min 30s</t>
-        </is>
-      </c>
-      <c r="G53" s="4" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>45641.70763888889</v>
-      </c>
-      <c r="C54" s="3" t="n">
-        <v>45641.71180555555</v>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>6min 0s</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>RETOUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7" t="n">
-        <v>45641.71180555555</v>
-      </c>
-      <c r="C55" s="7" t="n">
-        <v>45641.71354166666</v>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>Python Trident</t>
-        </is>
-      </c>
-      <c r="E55" s="6" t="inlineStr">
-        <is>
-          <t>KACW</t>
-        </is>
-      </c>
-      <c r="F55" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="inlineStr">
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
@@ -2236,19 +2236,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="n">
-        <v>45641.71354166666</v>
+        <v>45641.69965277778</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>45641.71388888889</v>
+        <v>45641.7</v>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>IFRI</t>
+          <t>Firesky</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Black Witches</t>
+          <t>Bélion</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
@@ -2263,62 +2263,62 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n">
+      <c r="A57" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="n">
-        <v>45641.71388888889</v>
-      </c>
-      <c r="C57" s="7" t="n">
-        <v>45641.715625</v>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
-        <is>
-          <t>Dream team</t>
-        </is>
-      </c>
-      <c r="E57" s="6" t="inlineStr">
-        <is>
-          <t>BOÏZ</t>
-        </is>
-      </c>
-      <c r="F57" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G57" s="6" t="inlineStr">
+      <c r="B57" s="5" t="n">
+        <v>45641.7</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>45641.70034722222</v>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>Team Zero</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>Gojok</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
+      <c r="A58" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="n">
-        <v>45641.715625</v>
-      </c>
-      <c r="C58" s="7" t="n">
-        <v>45641.71736111111</v>
-      </c>
-      <c r="D58" s="6" t="inlineStr">
-        <is>
-          <t>Eriatech</t>
-        </is>
-      </c>
-      <c r="E58" s="6" t="inlineStr">
-        <is>
-          <t>EL-LINE</t>
-        </is>
-      </c>
-      <c r="F58" s="6" t="inlineStr">
-        <is>
-          <t>2min 30s</t>
-        </is>
-      </c>
-      <c r="G58" s="6" t="inlineStr">
+      <c r="B58" s="5" t="n">
+        <v>45641.70034722222</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>45641.70069444444</v>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Bélion</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>AI_MAU</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>0min 30s</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="inlineStr">
         <is>
           <t>RETOUR</t>
         </is>

--- a/src/tournament/schedules/pool_D/schedule.xlsx
+++ b/src/tournament/schedules/pool_D/schedule.xlsx
@@ -567,7 +567,7 @@
         <v>45641.625</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45641.62673611111</v>
+        <v>45641.62708333333</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -595,10 +595,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45641.62673611111</v>
+        <v>45641.62708333333</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45641.62708333333</v>
+        <v>45641.62743055556</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>45641.62708333333</v>
+        <v>45641.62743055556</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>45641.62881944444</v>
+        <v>45641.62951388889</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,10 +657,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>45641.62881944444</v>
+        <v>45641.62951388889</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>45641.63055555556</v>
+        <v>45641.63159722222</v>
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G5" s="6" t="inlineStr">
@@ -688,10 +688,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="n">
-        <v>45641.63055555556</v>
+        <v>45641.63159722222</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>45641.63472222222</v>
+        <v>45641.63611111111</v>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
       </c>
       <c r="F6" s="8" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>6min 30s</t>
         </is>
       </c>
       <c r="G6" s="8" t="inlineStr">
@@ -719,10 +719,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>45641.63472222222</v>
+        <v>45641.63611111111</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45641.63506944444</v>
+        <v>45641.63645833333</v>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
@@ -750,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>45641.63506944444</v>
+        <v>45641.63645833333</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>45641.63680555556</v>
+        <v>45641.63854166667</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -781,10 +781,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45641.63680555556</v>
+        <v>45641.63854166667</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45641.63715277778</v>
+        <v>45641.63888888889</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>45641.63715277778</v>
+        <v>45641.63888888889</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>45641.63888888889</v>
+        <v>45641.64097222222</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -843,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45641.63888888889</v>
+        <v>45641.64097222222</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45641.63923611111</v>
+        <v>45641.64131944445</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
@@ -874,10 +874,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>45641.63923611111</v>
+        <v>45641.64131944445</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>45641.64097222222</v>
+        <v>45641.64340277778</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -905,10 +905,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>45641.64097222222</v>
+        <v>45641.64340277778</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45641.64131944445</v>
+        <v>45641.64375</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
@@ -936,10 +936,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>45641.64131944445</v>
+        <v>45641.64375</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>45641.64305555556</v>
+        <v>45641.64583333334</v>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -967,10 +967,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>45641.64305555556</v>
+        <v>45641.64583333334</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45641.64340277778</v>
+        <v>45641.64618055556</v>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>45641.64340277778</v>
+        <v>45641.64618055556</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>45641.64513888889</v>
+        <v>45641.64826388889</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1029,10 +1029,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>45641.64513888889</v>
+        <v>45641.64826388889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45641.64548611111</v>
+        <v>45641.64861111111</v>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
@@ -1060,10 +1060,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>45641.64548611111</v>
+        <v>45641.64861111111</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>45641.64722222222</v>
+        <v>45641.65069444444</v>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G18" s="6" t="inlineStr">
@@ -1091,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>45641.64722222222</v>
+        <v>45641.65069444444</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>45641.64895833333</v>
+        <v>45641.65277777778</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1122,10 +1122,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="n">
-        <v>45641.64895833333</v>
+        <v>45641.65277777778</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>45641.653125</v>
+        <v>45641.65729166667</v>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>6min 30s</t>
         </is>
       </c>
       <c r="G20" s="8" t="inlineStr">
@@ -1153,10 +1153,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45641.653125</v>
+        <v>45641.65729166667</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45641.65347222222</v>
+        <v>45641.65763888889</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>45641.65347222222</v>
+        <v>45641.65763888889</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>45641.65520833333</v>
+        <v>45641.65972222222</v>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G22" s="6" t="inlineStr">
@@ -1215,10 +1215,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>45641.65520833333</v>
+        <v>45641.65972222222</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>45641.65555555555</v>
+        <v>45641.66006944444</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="n">
-        <v>45641.65555555555</v>
+        <v>45641.66006944444</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>45641.65972222222</v>
+        <v>45641.66458333333</v>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F24" s="8" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>6min 30s</t>
         </is>
       </c>
       <c r="G24" s="8" t="inlineStr">
@@ -1277,10 +1277,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>45641.65972222222</v>
+        <v>45641.66458333333</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>45641.66006944444</v>
+        <v>45641.66493055555</v>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
@@ -1308,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>45641.66006944444</v>
+        <v>45641.66493055555</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>45641.66180555556</v>
+        <v>45641.66701388889</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1339,10 +1339,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>45641.66180555556</v>
+        <v>45641.66701388889</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45641.66215277778</v>
+        <v>45641.66736111111</v>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>45641.66215277778</v>
+        <v>45641.66736111111</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45641.6625</v>
+        <v>45641.66770833333</v>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>45641.6625</v>
+        <v>45641.66770833333</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>45641.66284722222</v>
+        <v>45641.66805555556</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="B30" s="11" t="n">
-        <v>45641.66284722222</v>
+        <v>45641.66805555556</v>
       </c>
       <c r="C30" s="11" t="n">
-        <v>45641.66979166667</v>
+        <v>45641.675</v>
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>45641.66979166667</v>
+        <v>45641.675</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>45641.67152777778</v>
+        <v>45641.67708333334</v>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1492,10 +1492,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>45641.66458333333</v>
+        <v>45641.67013888889</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>45641.66493055555</v>
+        <v>45641.67048611111</v>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
@@ -1523,10 +1523,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>45641.66493055555</v>
+        <v>45641.67048611111</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>45641.66666666666</v>
+        <v>45641.67256944445</v>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1554,10 +1554,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>45641.66666666666</v>
+        <v>45641.67256944445</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>45641.66840277778</v>
+        <v>45641.67465277778</v>
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
@@ -1585,10 +1585,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="n">
-        <v>45641.66840277778</v>
+        <v>45641.67465277778</v>
       </c>
       <c r="C35" s="9" t="n">
-        <v>45641.67256944445</v>
+        <v>45641.67916666667</v>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F35" s="8" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>6min 30s</t>
         </is>
       </c>
       <c r="G35" s="8" t="inlineStr">
@@ -1616,10 +1616,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>45641.67256944445</v>
+        <v>45641.67916666667</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45641.67291666667</v>
+        <v>45641.67951388889</v>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
@@ -1647,10 +1647,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>45641.67291666667</v>
+        <v>45641.67951388889</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>45641.67465277778</v>
+        <v>45641.68159722222</v>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -1678,10 +1678,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>45641.67465277778</v>
+        <v>45641.68159722222</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>45641.675</v>
+        <v>45641.68194444444</v>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
@@ -1709,10 +1709,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>45641.675</v>
+        <v>45641.68194444444</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>45641.67673611111</v>
+        <v>45641.68402777778</v>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -1740,10 +1740,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>45641.67673611111</v>
+        <v>45641.68402777778</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>45641.67708333334</v>
+        <v>45641.684375</v>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>45641.67708333334</v>
+        <v>45641.684375</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>45641.67881944445</v>
+        <v>45641.68645833333</v>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -1802,10 +1802,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>45641.67881944445</v>
+        <v>45641.68645833333</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>45641.67916666667</v>
+        <v>45641.68680555555</v>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
@@ -1833,10 +1833,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>45641.67916666667</v>
+        <v>45641.68680555555</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>45641.68090277778</v>
+        <v>45641.68888888889</v>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -1864,10 +1864,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>45641.68090277778</v>
+        <v>45641.68888888889</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>45641.68125</v>
+        <v>45641.68923611111</v>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
@@ -1895,10 +1895,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>45641.68125</v>
+        <v>45641.68923611111</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>45641.68298611111</v>
+        <v>45641.69131944444</v>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -1926,10 +1926,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>45641.68298611111</v>
+        <v>45641.69131944444</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>45641.68333333333</v>
+        <v>45641.69166666667</v>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
@@ -1957,10 +1957,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="7" t="n">
-        <v>45641.68333333333</v>
+        <v>45641.69166666667</v>
       </c>
       <c r="C47" s="7" t="n">
-        <v>45641.68506944444</v>
+        <v>45641.69375</v>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F47" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G47" s="6" t="inlineStr">
@@ -1988,10 +1988,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>45641.68506944444</v>
+        <v>45641.69375</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>45641.68680555555</v>
+        <v>45641.69583333333</v>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -2019,10 +2019,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="n">
-        <v>45641.68680555555</v>
+        <v>45641.69583333333</v>
       </c>
       <c r="C49" s="9" t="n">
-        <v>45641.69097222222</v>
+        <v>45641.70034722222</v>
       </c>
       <c r="D49" s="8" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>6min 30s</t>
         </is>
       </c>
       <c r="G49" s="8" t="inlineStr">
@@ -2050,10 +2050,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>45641.69097222222</v>
+        <v>45641.70034722222</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>45641.69131944444</v>
+        <v>45641.70069444444</v>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
@@ -2081,10 +2081,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="7" t="n">
-        <v>45641.69131944444</v>
+        <v>45641.70069444444</v>
       </c>
       <c r="C51" s="7" t="n">
-        <v>45641.69305555556</v>
+        <v>45641.70277777778</v>
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="F51" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G51" s="6" t="inlineStr">
@@ -2112,10 +2112,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>45641.69305555556</v>
+        <v>45641.70277777778</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>45641.69340277778</v>
+        <v>45641.703125</v>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="n">
-        <v>45641.69340277778</v>
+        <v>45641.703125</v>
       </c>
       <c r="C53" s="9" t="n">
-        <v>45641.69756944444</v>
+        <v>45641.70763888889</v>
       </c>
       <c r="D53" s="8" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>6min 30s</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -2174,10 +2174,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>45641.69756944444</v>
+        <v>45641.70763888889</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>45641.69791666666</v>
+        <v>45641.70798611111</v>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
@@ -2205,10 +2205,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>45641.69791666666</v>
+        <v>45641.70798611111</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>45641.69965277778</v>
+        <v>45641.71006944445</v>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -2236,10 +2236,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="n">
-        <v>45641.69965277778</v>
+        <v>45641.71006944445</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>45641.7</v>
+        <v>45641.71041666667</v>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
@@ -2267,10 +2267,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="n">
-        <v>45641.7</v>
+        <v>45641.71041666667</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>45641.70034722222</v>
+        <v>45641.71076388889</v>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
@@ -2298,10 +2298,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="n">
-        <v>45641.70034722222</v>
+        <v>45641.71076388889</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>45641.70069444444</v>
+        <v>45641.71111111111</v>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
